--- a/modulo04-python/baseprojeto.xlsx
+++ b/modulo04-python/baseprojeto.xlsx
@@ -2471,16 +2471,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
